--- a/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,186 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r445715362-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>55475</t>
+  </si>
+  <si>
+    <t>244338</t>
+  </si>
+  <si>
+    <t>445715362</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Never stay here again the rest of my life</t>
+  </si>
+  <si>
+    <t>For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the...For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the bathroom sink was turned off. Only the shower got hot. Fighting drug people got moved in right next to us and you could hear every word they said, down to threatening each other and him slapping her. The people behind the desk are rude. First they barely know English but then they always say no. To everything. No extra towels, no extra blankets just no. It was a horrible stay. The pics looked nice and the amenities looked ok and it was close to family  but that was in the internet. Once you get there you realize you have no privacy and all the above. We spent $350 for a week here and never was given coffee without having to go down the street to get it. Never had a day they didn't ask if we needed room service even though we did not. We needed extra blankets because Texas had an extra cold front come in but we're told no. No bags over their shotty mattresses and the coverlets we're not changed. The bottom floor window opens up the whole way open and was unlocked every day without our knowledge. Construction made it almost impossible to reach. Oh and the best part of waking up? Was the construction that started at 7 with the jack hammering. I will tell every neighbor, friend and family member about this hotel and I hope they tell everyone they know. It's false advertising and they know it. One unhappy family.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the...For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the bathroom sink was turned off. Only the shower got hot. Fighting drug people got moved in right next to us and you could hear every word they said, down to threatening each other and him slapping her. The people behind the desk are rude. First they barely know English but then they always say no. To everything. No extra towels, no extra blankets just no. It was a horrible stay. The pics looked nice and the amenities looked ok and it was close to family  but that was in the internet. Once you get there you realize you have no privacy and all the above. We spent $350 for a week here and never was given coffee without having to go down the street to get it. Never had a day they didn't ask if we needed room service even though we did not. We needed extra blankets because Texas had an extra cold front come in but we're told no. No bags over their shotty mattresses and the coverlets we're not changed. The bottom floor window opens up the whole way open and was unlocked every day without our knowledge. Construction made it almost impossible to reach. Oh and the best part of waking up? Was the construction that started at 7 with the jack hammering. I will tell every neighbor, friend and family member about this hotel and I hope they tell everyone they know. It's false advertising and they know it. One unhappy family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r425424780-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>425424780</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Good for basic sleep</t>
+  </si>
+  <si>
+    <t>I stay here whenever I visit Fort Worth. R.C. Patel is always cheerful and helpful at the front desk. Very basic rooms, but all I need for a reasonable price is a bed, shower, and TV, and Motel 6 provides them. Everything has always worked. Rooms also have a small refrigerator and microwave. Very close to IH 20, although construction on Hwy 377 is inconvenient at this time. Only once have I had a problem with noisy neighbors, and the desk was helpful in getting that resolved.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r356013521-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>356013521</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Total Disrepair</t>
+  </si>
+  <si>
+    <t>$70.00 room it was not. Floor linoleum is chipped and peeling up, bathroom toilet would not flush. Shower bar broken and chipped. No Queen beds only full. No carpet anywhere, so if someone sneezes down the hall it echoes through the room. There is construction out front so even finding the entrance is a magic trick. Just needs some refreshing and a real handyman. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Ft. Worth - Benbrook, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>$70.00 room it was not. Floor linoleum is chipped and peeling up, bathroom toilet would not flush. Shower bar broken and chipped. No Queen beds only full. No carpet anywhere, so if someone sneezes down the hall it echoes through the room. There is construction out front so even finding the entrance is a magic trick. Just needs some refreshing and a real handyman. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r240880384-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>240880384</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Good enough</t>
+  </si>
+  <si>
+    <t>The motel is a little tricky to get to coming from the west. it is far enough from I-20/Loop 820 that you do not hear traffic noise. I reserved a non-smoking accessible room but it turned out to be unofficially smoking. I could not even get into the room the smoke smell was so thick. They put me in a regular room and it was fine.The room was large - plenty of room to move around. The mattress was firm and bouncy, the pillows also new and firm. Sheets and towels were thin and rough but clean. The doors could have used some new paint. The only amenities were the bars of soap. No coffee pot but they did provide a microwave and refrigerator. No hairdryer. Plastic cups.There is an elevator to get to the second and third floors.The staff was friendly and helpful.I suspect there is little crime here because the parking lot in front of the motel is where cops wait to catch speeders on Benbrook Avenue.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The motel is a little tricky to get to coming from the west. it is far enough from I-20/Loop 820 that you do not hear traffic noise. I reserved a non-smoking accessible room but it turned out to be unofficially smoking. I could not even get into the room the smoke smell was so thick. They put me in a regular room and it was fine.The room was large - plenty of room to move around. The mattress was firm and bouncy, the pillows also new and firm. Sheets and towels were thin and rough but clean. The doors could have used some new paint. The only amenities were the bars of soap. No coffee pot but they did provide a microwave and refrigerator. No hairdryer. Plastic cups.There is an elevator to get to the second and third floors.The staff was friendly and helpful.I suspect there is little crime here because the parking lot in front of the motel is where cops wait to catch speeders on Benbrook Avenue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r217515890-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>217515890</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>You pay for what you get</t>
+  </si>
+  <si>
+    <t>Wanted a cheap place to stay as we passed through Dallas/Ft. Worth so we got off the interstate in Benbrook.  The customer service was decent but the rest left much to be desired.  It was loud as the walls were thin and people were moving and talking in the halls until late into the night.  The a/c in our room just barely worked.  It took several hours for the room to cool down enough to be bearable. You had to pay an additional $3 a night per device to use their wifi. About all I can say good about this place was that it was conveniently located just outside of town.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Wanted a cheap place to stay as we passed through Dallas/Ft. Worth so we got off the interstate in Benbrook.  The customer service was decent but the rest left much to be desired.  It was loud as the walls were thin and people were moving and talking in the halls until late into the night.  The a/c in our room just barely worked.  It took several hours for the room to cool down enough to be bearable. You had to pay an additional $3 a night per device to use their wifi. About all I can say good about this place was that it was conveniently located just outside of town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r154772547-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>154772547</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>A good night's rest!</t>
+  </si>
+  <si>
+    <t>Some friends and I stayed here while en route to a wedding and we had a great experience. When you're driving cross-country and exhausted, the last thing you want to worry about is the quality of your room, so we were relieved to find that ours were very clean and comfortable. The staff was quick to respond to any request and knew the surrounding area very well, which is useful if you're in the mood to eat or go somewhere unique to DFW.Definitely recommend for anyone looking for a clean, simple, and affordable place to stay.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r6821741-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>6821741</t>
+  </si>
+  <si>
+    <t>02/20/2007</t>
+  </si>
+  <si>
+    <t>Clean, convenient, good price</t>
+  </si>
+  <si>
+    <t>Rooms are very clean but spartan.  Management is quite unfriendly, but the room is a good value for an overnight stop.</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r2772376-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>2772376</t>
+  </si>
+  <si>
+    <t>10/21/2004</t>
+  </si>
+  <si>
+    <t>Newer hotel, nice, however.....</t>
+  </si>
+  <si>
+    <t>We stayed at the BENBROOK Motel 6 for a few nights. The hotel itself is very nice, extremely clean. The housekeepers were the sweetest women and very kind. The management was not friendly. The Starbucks coffee machine in the lobby was habitually faulty. Management did offer to refund my money. It would have been so much better had they offered to fix the machine!  Stay here for sleeping purposes only and you will be fine.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +825,496 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the...For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the bathroom sink was turned off. Only the shower got hot. Fighting drug people got moved in right next to us and you could hear every word they said, down to threatening each other and him slapping her. The people behind the desk are rude. First they barely know English but then they always say no. To everything. No extra towels, no extra blankets just no. It was a horrible stay. The pics looked nice and the amenities looked ok and it was close to family  but that was in the internet. Once you get there you realize you have no privacy and all the above. We spent $350 for a week here and never was given coffee without having to go down the street to get it. Never had a day they didn't ask if we needed room service even though we did not. We needed extra blankets because Texas had an extra cold front come in but we're told no. No bags over their shotty mattresses and the coverlets we're not changed. The bottom floor window opens up the whole way open and was unlocked every day without our knowledge. Construction made it almost impossible to reach. Oh and the best part of waking up? Was the construction that started at 7 with the jack hammering. I will tell every neighbor, friend and family member about this hotel and I hope they tell everyone they know. It's false advertising and they know it. One unhappy family.More</t>
   </si>
   <si>
+    <t>Jerry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r425424780-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Brian M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r356013521-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>$70.00 room it was not. Floor linoleum is chipped and peeling up, bathroom toilet would not flush. Shower bar broken and chipped. No Queen beds only full. No carpet anywhere, so if someone sneezes down the hall it echoes through the room. There is construction out front so even finding the entrance is a magic trick. Just needs some refreshing and a real handyman. More</t>
   </si>
   <si>
+    <t>TexasRed79109</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r240880384-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>The motel is a little tricky to get to coming from the west. it is far enough from I-20/Loop 820 that you do not hear traffic noise. I reserved a non-smoking accessible room but it turned out to be unofficially smoking. I could not even get into the room the smoke smell was so thick. They put me in a regular room and it was fine.The room was large - plenty of room to move around. The mattress was firm and bouncy, the pillows also new and firm. Sheets and towels were thin and rough but clean. The doors could have used some new paint. The only amenities were the bars of soap. No coffee pot but they did provide a microwave and refrigerator. No hairdryer. Plastic cups.There is an elevator to get to the second and third floors.The staff was friendly and helpful.I suspect there is little crime here because the parking lot in front of the motel is where cops wait to catch speeders on Benbrook Avenue.More</t>
   </si>
   <si>
+    <t>allg00dnamesaretaken</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r217515890-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>Wanted a cheap place to stay as we passed through Dallas/Ft. Worth so we got off the interstate in Benbrook.  The customer service was decent but the rest left much to be desired.  It was loud as the walls were thin and people were moving and talking in the halls until late into the night.  The a/c in our room just barely worked.  It took several hours for the room to cool down enough to be bearable. You had to pay an additional $3 a night per device to use their wifi. About all I can say good about this place was that it was conveniently located just outside of town.More</t>
   </si>
   <si>
+    <t>AXE85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r154772547-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -292,6 +310,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>christian08</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r6821741-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
@@ -829,43 +850,47 @@
       <c r="A2" t="n">
         <v>37245</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -879,50 +904,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37245</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>20726</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -942,50 +971,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37245</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>10345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -997,56 +1030,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37245</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>149678</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1066,50 +1103,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37245</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169403</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1129,50 +1170,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37245</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169404</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1192,50 +1237,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37245</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1259,41 +1308,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37245</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -1312,7 +1365,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_576.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r584705594-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>55475</t>
+  </si>
+  <si>
+    <t>244338</t>
+  </si>
+  <si>
+    <t>584705594</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Convenient and Affordable</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the freeway.  There are several restaurants close-by including a Cracker Barrel (short drive).  There are plenty of stores on the main road including a Walmart, apparently the favorite place to shop in Texas!  Room was clean and adequate.  Coffee only in the lobby and there was a fridge in the room.   Pool outside that we did not use.  Easy parking.  Friendly reception.  Another good food option is a Chinese buffet within walking distance, but we did not eat there.  Relatives said it was good after the  fact.  Easy access to freeway.  Benbrook is actually a lovely city if you get to the rural and residential areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The hotel is located right off the freeway.  There are several restaurants close-by including a Cracker Barrel (short drive).  There are plenty of stores on the main road including a Walmart, apparently the favorite place to shop in Texas!  Room was clean and adequate.  Coffee only in the lobby and there was a fridge in the room.   Pool outside that we did not use.  Easy parking.  Friendly reception.  Another good food option is a Chinese buffet within walking distance, but we did not eat there.  Relatives said it was good after the  fact.  Easy access to freeway.  Benbrook is actually a lovely city if you get to the rural and residential areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r582313325-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>582313325</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Needs more</t>
+  </si>
+  <si>
+    <t>This motel is good but needs to provide more than coffee for a few hours in the morning could use a continental breakfast. Good staff p0lite helpful courteous some sheets had burn.holes in them we used non smoking rooms missed our towels etc one day we stayed here 13 nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r445715362-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
-    <t>55475</t>
-  </si>
-  <si>
-    <t>244338</t>
-  </si>
-  <si>
     <t>445715362</t>
   </si>
   <si>
@@ -177,15 +216,9 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the...For starters they don't have do not disturb signs. I asked. They want to be in your room daily. The heater only works from about 6pm to 9am. Otherwise it just blows cool air. The a/c is old and rattles and is loud. You have to pay $2.99 a day for wifi and the codes change every 24 hours. When you do pay for wifi, it's horrible. I couldn't load a thing. The beds are not queen sized they are full sized. The rooms are much smaller than they appear. The rooms stink. The fridge freezes everything or doesn't cool at all. No coffee maker in the room at all. No breakfast at the hotel, just loud vending machines. The beds made my back hurt because they might as well been as soft as a deflating air mattress. The male manager has to be in the know of who goes and who stays. He's a very nosy man. The TV cuts in and out. You don't get most channels. At 8 am you can hear everyone leaving or cleaning just outside your room and because they don't have do not disturb signs, they knock anyway. Regardless of the tossing turning sleep you've had all night. And if you stay during the day you'll have no heat until the evening. If you're out, and they clean your room they turn your heat all the way down. The hot water in the bathroom sink was turned off. Only the shower got hot. Fighting drug people got moved in right next to us and you could hear every word they said, down to threatening each other and him slapping her. The people behind the desk are rude. First they barely know English but then they always say no. To everything. No extra towels, no extra blankets just no. It was a horrible stay. The pics looked nice and the amenities looked ok and it was close to family  but that was in the internet. Once you get there you realize you have no privacy and all the above. We spent $350 for a week here and never was given coffee without having to go down the street to get it. Never had a day they didn't ask if we needed room service even though we did not. We needed extra blankets because Texas had an extra cold front come in but we're told no. No bags over their shotty mattresses and the coverlets we're not changed. The bottom floor window opens up the whole way open and was unlocked every day without our knowledge. Construction made it almost impossible to reach. Oh and the best part of waking up? Was the construction that started at 7 with the jack hammering. I will tell every neighbor, friend and family member about this hotel and I hope they tell everyone they know. It's false advertising and they know it. One unhappy family.More</t>
   </si>
   <si>
-    <t>Jerry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r425424780-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -207,9 +240,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Brian M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r356013521-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -237,7 +267,43 @@
     <t>$70.00 room it was not. Floor linoleum is chipped and peeling up, bathroom toilet would not flush. Shower bar broken and chipped. No Queen beds only full. No carpet anywhere, so if someone sneezes down the hall it echoes through the room. There is construction out front so even finding the entrance is a magic trick. Just needs some refreshing and a real handyman. More</t>
   </si>
   <si>
-    <t>TexasRed79109</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r249365823-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>249365823</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We check in late in the evening. We needed a place to stay for night. The staff was great and helpful. The room was a smoking room. Yes the it did smell like smoke but wasn't bad. The hotel was quiet, the bed was comfortable. Will stay again if need be.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r247927701-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>247927701</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Good stay with a small "reservation"</t>
+  </si>
+  <si>
+    <t>This was my second stay here, and it was good overall.  The desk staff was friendly and efficient.  I still like the bit of unexpected flair that the rooms have here; they are small, but well designed.  The old-school TVs could use replacing, but mine worked okay.  The linens were basic and the towels small, but in decent condition.  The only problem I had was temperature.  I adjusted the thermostat to warm up the room, but I never really detected any change and the room remained cold.  The bed linens did not help this problem--very thin, including the single blanket.  There was not an extra blanket in the room, so I survived by doubling up everything on the bed.  The mattress seemed a bit worn, but I slept well enough.  My room was quiet.  The motel fronts a busy thoroughfare, so I recommend asking for a room on the back side.  I had a good stay overall, just not as great as the first.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This was my second stay here, and it was good overall.  The desk staff was friendly and efficient.  I still like the bit of unexpected flair that the rooms have here; they are small, but well designed.  The old-school TVs could use replacing, but mine worked okay.  The linens were basic and the towels small, but in decent condition.  The only problem I had was temperature.  I adjusted the thermostat to warm up the room, but I never really detected any change and the room remained cold.  The bed linens did not help this problem--very thin, including the single blanket.  There was not an extra blanket in the room, so I survived by doubling up everything on the bed.  The mattress seemed a bit worn, but I slept well enough.  My room was quiet.  The motel fronts a busy thoroughfare, so I recommend asking for a room on the back side.  I had a good stay overall, just not as great as the first.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r240880384-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
@@ -264,9 +330,6 @@
     <t>The motel is a little tricky to get to coming from the west. it is far enough from I-20/Loop 820 that you do not hear traffic noise. I reserved a non-smoking accessible room but it turned out to be unofficially smoking. I could not even get into the room the smoke smell was so thick. They put me in a regular room and it was fine.The room was large - plenty of room to move around. The mattress was firm and bouncy, the pillows also new and firm. Sheets and towels were thin and rough but clean. The doors could have used some new paint. The only amenities were the bars of soap. No coffee pot but they did provide a microwave and refrigerator. No hairdryer. Plastic cups.There is an elevator to get to the second and third floors.The staff was friendly and helpful.I suspect there is little crime here because the parking lot in front of the motel is where cops wait to catch speeders on Benbrook Avenue.More</t>
   </si>
   <si>
-    <t>allg00dnamesaretaken</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r217515890-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -288,9 +351,6 @@
     <t>Wanted a cheap place to stay as we passed through Dallas/Ft. Worth so we got off the interstate in Benbrook.  The customer service was decent but the rest left much to be desired.  It was loud as the walls were thin and people were moving and talking in the halls until late into the night.  The a/c in our room just barely worked.  It took several hours for the room to cool down enough to be bearable. You had to pay an additional $3 a night per device to use their wifi. About all I can say good about this place was that it was conveniently located just outside of town.More</t>
   </si>
   <si>
-    <t>AXE85</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r154772547-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
   </si>
   <si>
@@ -312,7 +372,43 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>christian08</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r150883452-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>150883452</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Awesome place to stay and friendly staff.</t>
+  </si>
+  <si>
+    <t>Very clean rooms, friendly staff and overall just a nice place to stay compared to the other places in the area. Good bang for you buck too.Management was friendly and helpful. Nice little town on the edge of Fort Worth with plenty of places to eat and grab coffee as well.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r71701374-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
+  </si>
+  <si>
+    <t>71701374</t>
+  </si>
+  <si>
+    <t>07/20/2010</t>
+  </si>
+  <si>
+    <t>IT'LL LEAVE A BAD TASTE IN YOUR MOUTH</t>
+  </si>
+  <si>
+    <t>After a long drive to DFW area - we arrived at the hotel at 1:00 AM.  Exhausted and looking for a good rest - we were greeted with an unprofessional desk clerk, a higher price than what was reserved and a room that left a lot to be desired for the price that we paid.  This is not the 1st time we have stayed with the chain, so we knew that we would get a good room for the price by the time it was all said and done - I could have stayed in at a much nicer facility.  I would not recommend this property to anyone - stay up the street on Bryant Irvin and get a much nicer place, better servicer for the same price!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>After a long drive to DFW area - we arrived at the hotel at 1:00 AM.  Exhausted and looking for a good rest - we were greeted with an unprofessional desk clerk, a higher price than what was reserved and a room that left a lot to be desired for the price that we paid.  This is not the 1st time we have stayed with the chain, so we knew that we would get a good room for the price by the time it was all said and done - I could have stayed in at a much nicer facility.  I would not recommend this property to anyone - stay up the street on Bryant Irvin and get a much nicer place, better servicer for the same price!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55475-d244338-r6821741-Motel_6_Ft_Worth_Benbrook-Benbrook_Texas.html</t>
@@ -850,175 +946,161 @@
       <c r="A2" t="n">
         <v>37245</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37245</v>
       </c>
-      <c r="B3" t="n">
-        <v>20726</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37245</v>
       </c>
-      <c r="B4" t="n">
-        <v>10345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1029,70 +1111,62 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" t="s">
-        <v>71</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37245</v>
       </c>
-      <c r="B5" t="n">
-        <v>149678</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="n">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -1103,269 +1177,625 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37245</v>
       </c>
-      <c r="B6" t="n">
-        <v>169403</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37245</v>
       </c>
-      <c r="B7" t="n">
-        <v>169404</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37245</v>
       </c>
-      <c r="B8" t="n">
-        <v>169405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37245</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37245</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
